--- a/data/trans_camb/PCS12_SP_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/PCS12_SP_R2-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-1.18993771852457</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3.320038057120034</v>
+        <v>3.320038057120023</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-2.058071881132106</v>
@@ -655,7 +655,7 @@
         <v>-3.177732426819657</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>3.306353835031439</v>
+        <v>3.306353835031417</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.02038965908722767</v>
@@ -664,7 +664,7 @@
         <v>-2.20891932310191</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>3.653530424933782</v>
+        <v>3.653530424933804</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.266138355786759</v>
+        <v>-1.920240262057016</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.519442268603154</v>
+        <v>-5.542451678168746</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.89602618949285</v>
+        <v>-1.772450557554196</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.491890911133105</v>
+        <v>-5.660736944103059</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-7.06680585370979</v>
+        <v>-6.731089909751914</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.04613631982005351</v>
+        <v>0.01102107387798687</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.675069033865471</v>
+        <v>-2.85348158337499</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-5.168436329526937</v>
+        <v>-5.044187898603645</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6235064204683756</v>
+        <v>0.8754029569605128</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.326217636669054</v>
+        <v>6.872570370977114</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.480343644225222</v>
+        <v>3.269851546311404</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.307733357798865</v>
+        <v>8.642620956637291</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.554356196485502</v>
+        <v>1.490859858366315</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6065861733054344</v>
+        <v>0.5333041452829476</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.954649810868108</v>
+        <v>6.584307537977296</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.839777420279204</v>
+        <v>2.562314247901864</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.4732575483595547</v>
+        <v>0.7789240158576153</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>6.58330242492719</v>
+        <v>6.553710301491329</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.01907428815555717</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.05321905642880597</v>
+        <v>0.0532190564288058</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.02715910768304911</v>
@@ -760,7 +760,7 @@
         <v>-0.04193457865059487</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04363191619647672</v>
+        <v>0.04363191619647643</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.0002917391056132104</v>
@@ -769,7 +769,7 @@
         <v>-0.03160563621670197</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.05227540558382913</v>
+        <v>0.05227540558382945</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.03544616753849797</v>
+        <v>-0.02916199294609156</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.08645193549396783</v>
+        <v>-0.08670560764299373</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.03005849611889488</v>
+        <v>-0.02832000277582347</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.06992547875802696</v>
+        <v>-0.07380941886560807</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.09046210499159665</v>
+        <v>-0.08725312905176344</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.0008092242846779446</v>
+        <v>1.558343477207029e-05</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.03747533129249498</v>
+        <v>-0.04004935533525875</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.07276360753171998</v>
+        <v>-0.07092768910723336</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.008698001808050967</v>
+        <v>0.01237109120235331</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1039745848320724</v>
+        <v>0.1148313083246895</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.05891533535455502</v>
+        <v>0.05463697294366764</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1362302127241326</v>
+        <v>0.1436439703463124</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.02106613081922905</v>
+        <v>0.01947952209030283</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.008473681481546992</v>
+        <v>0.007547328642361423</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09310967496070165</v>
+        <v>0.08795248510997768</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04111982381389607</v>
+        <v>0.03753233951479212</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.006842606582222924</v>
+        <v>0.01086722131284986</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.0962825990560056</v>
+        <v>0.09427631971575581</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.860694353890451</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7.759931363180711</v>
+        <v>7.759931363180717</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-1.636954303619015</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03104873659939961</v>
+        <v>0.2458656746889993</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.133636765532766</v>
+        <v>-2.16517322315651</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.619705419418943</v>
+        <v>4.303461649430865</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.328824895689125</v>
+        <v>-5.273097207153896</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-9.450663468751696</v>
+        <v>-9.380354335970045</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.546651612964292</v>
+        <v>-2.075253218349775</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.496857080341294</v>
+        <v>-1.555460605275375</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-4.846646552755788</v>
+        <v>-4.568228277287833</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.376345407062632</v>
+        <v>2.206219744618963</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.42695328367983</v>
+        <v>6.728522330162972</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.919987261152285</v>
+        <v>3.939807845428701</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.13366078259091</v>
+        <v>10.93381767883078</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.676466238548436</v>
+        <v>2.004972845007229</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-2.641291614698522</v>
+        <v>-2.586996303726302</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.572924527220689</v>
+        <v>4.392295036123212</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.448612413433388</v>
+        <v>3.318674046930174</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.2336008026940645</v>
+        <v>0.032555580091939</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.680708206643231</v>
+        <v>7.078941238570093</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.02551101932201187</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.2300047142737337</v>
+        <v>0.2300047142737339</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.03602679803474793</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.0004904750935161865</v>
+        <v>0.007234475962845562</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.06000721310077509</v>
+        <v>-0.06060422061637818</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.1325798579316863</v>
+        <v>0.1218712820993993</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1115704243769561</v>
+        <v>-0.1120074465226439</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2002530999652963</v>
+        <v>-0.1992156437359189</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.03243738382693282</v>
+        <v>-0.04366650957601934</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.03656109944345094</v>
+        <v>-0.03853322918012796</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.119069958882734</v>
+        <v>-0.1122855939235766</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.05837603209830401</v>
+        <v>0.05262871615585626</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2001399654649222</v>
+        <v>0.2098694304923093</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1209200098596888</v>
+        <v>0.1238901321952048</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.3465440395910926</v>
+        <v>0.3380900498500279</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.03759265477261529</v>
+        <v>0.04415854703977896</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.06266342153108208</v>
+        <v>-0.05876111942759044</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1047874912341736</v>
+        <v>0.1002665408253148</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09086472207585562</v>
+        <v>0.08674990801747318</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.006454462368247894</v>
+        <v>0.0007177011841477526</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1764757083418355</v>
+        <v>0.1847782769627763</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-7.01169855862076</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9.331378625036058</v>
+        <v>9.331378625036068</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-6.464916036949009</v>
@@ -1083,7 +1083,7 @@
         <v>-10.63382346557392</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-2.373128528429707</v>
+        <v>-2.373128528429697</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-4.36898404351409</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-9.109437296659847</v>
+        <v>-9.089416299107047</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-12.92190319503875</v>
+        <v>-12.7341504119052</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.429507437019935</v>
+        <v>3.54740835004124</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-13.28818873331833</v>
+        <v>-12.58309621726504</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-16.76876637802439</v>
+        <v>-16.23260616746927</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-7.667558131292422</v>
+        <v>-7.91524988134864</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-9.274906058248716</v>
+        <v>-8.948232182075119</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-12.94287381351565</v>
+        <v>-12.59205184117408</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.2646261444652784</v>
+        <v>-0.2301267788109337</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.318507449265197</v>
+        <v>3.420330320472644</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-1.807543737919549</v>
+        <v>-0.6732297090502964</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15.02510237103786</v>
+        <v>14.79873039722453</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4410408588740141</v>
+        <v>-0.373774823674437</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-4.59402039702281</v>
+        <v>-3.345288210338351</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.339017569739618</v>
+        <v>3.338220208526149</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.04852701911884483</v>
+        <v>0.4244331851423604</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-4.131369913388164</v>
+        <v>-4.130501808741429</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.8666925339837</v>
+        <v>7.85341736379498</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.2148159508849761</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.2858835067774453</v>
+        <v>0.2858835067774456</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.1466764471222899</v>
@@ -1188,7 +1188,7 @@
         <v>-0.2412608974875569</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.05384169865860904</v>
+        <v>-0.05384169865860879</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.1151518761325041</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2536373617869072</v>
+        <v>-0.254105655129461</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3628261357343572</v>
+        <v>-0.3579346505273305</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.09237960257698492</v>
+        <v>0.1012865922214901</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2804693936566296</v>
+        <v>-0.2726297741450622</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3544421703226887</v>
+        <v>-0.3515913000253336</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1643980542305079</v>
+        <v>-0.166114950413089</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2277388716026809</v>
+        <v>-0.2225603042357192</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3192905328637746</v>
+        <v>-0.3194213578099128</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.006357081834338878</v>
+        <v>-0.004942079081717152</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1095479286774863</v>
+        <v>0.1137491362740793</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.05474249230071068</v>
+        <v>-0.02302801656959444</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5122926943578501</v>
+        <v>0.5114587169548811</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.01132081018426334</v>
+        <v>-0.008714536945916927</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.1120860026216183</v>
+        <v>-0.08083757689179784</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08214943642843839</v>
+        <v>0.08250596163621811</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.001445314151739283</v>
+        <v>0.01211760207505859</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.1146524641843178</v>
+        <v>-0.1163503900135027</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.2231065008878621</v>
+        <v>0.2224776747205475</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-6.377335398699141</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.6071630012201679</v>
+        <v>-0.6071630012201623</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.056676361970346</v>
+        <v>-1.13253362936468</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.14332213188026</v>
+        <v>-6.240370075402044</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1999232266722302</v>
+        <v>0.5435309561339989</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.317360664137999</v>
+        <v>-5.161071209214609</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-11.83164409836024</v>
+        <v>-11.64507758883106</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-6.471224771082179</v>
+        <v>-6.327839240089128</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.435168559386268</v>
+        <v>-2.323841724474129</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-8.014606580954798</v>
+        <v>-7.900123417651386</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.347409843846943</v>
+        <v>-2.349057555760279</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.973607993768665</v>
+        <v>3.722391597084743</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.039726863340064</v>
+        <v>-1.375539168857978</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.37780380445564</v>
+        <v>5.656709024253332</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.5662149545191046</v>
+        <v>-0.4284921358833763</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-6.808190958565784</v>
+        <v>-6.856472861490268</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-1.873068289247834</v>
+        <v>-1.968335711991039</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.008943015246156</v>
+        <v>1.112938342090363</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-4.58652309683693</v>
+        <v>-4.436524515141876</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.00743594643584</v>
+        <v>1.143656389883317</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.1277379144432377</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.01216146409968991</v>
+        <v>-0.0121614640996898</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.02509241321210187</v>
+        <v>-0.02577568101774472</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1389418261457296</v>
+        <v>-0.1410348806590237</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.004463517832139684</v>
+        <v>0.01226954799880698</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.09223027053564398</v>
+        <v>-0.08870065203648102</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2021159657957276</v>
+        <v>-0.1993283822326768</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.111324844290935</v>
+        <v>-0.1098768919217233</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.0477165118854012</v>
+        <v>-0.04617999315621495</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1587762775818704</v>
+        <v>-0.1559405935257832</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.04641407642070538</v>
+        <v>-0.04595512181232525</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.09491106774594546</v>
+        <v>0.08927111290435649</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.02512601610564712</v>
+        <v>-0.03239587215677568</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1280966324370621</v>
+        <v>0.1355382729669155</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.009505421508875608</v>
+        <v>-0.007692986139750791</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1215901203972034</v>
+        <v>-0.1221359449887848</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.03401119849845206</v>
+        <v>-0.03533925164387166</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02096493435191089</v>
+        <v>0.02260145188690995</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.09383941132431907</v>
+        <v>-0.09096593227218225</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.020569794383633</v>
+        <v>0.02325990790101007</v>
       </c>
     </row>
     <row r="28">
